--- a/docs/time/precast_backswing.xlsx
+++ b/docs/time/precast_backswing.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Play\LeyLine\lib\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moon_xu\Desktop\GI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5023D1CA-2D64-426A-8C07-2E76E1BC364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF036E-1D28-487C-AB63-3E9357258F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8364" yWindow="2280" windowWidth="13548" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="4365" windowWidth="20730" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q" sheetId="1" r:id="rId1"/>
+    <sheet name="E" sheetId="2" r:id="rId2"/>
+    <sheet name="A" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="75">
   <si>
     <t>albedo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,18 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q precast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q backswing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tartaglia(melee)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,19 +213,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E precast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long E precast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E backswing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long E backswing</t>
+    <t>A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charged A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenhe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arataki itto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gorou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short e+p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long e+p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tartaglia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoer e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e2+fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunjin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,11 +325,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charged A</t>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,10 +369,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,67 +657,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="15" width="14.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="15" width="14.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -663,10 +704,13 @@
         <v>1.3</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -676,20 +720,50 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -697,82 +771,118 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12</v>
       </c>
       <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.3</v>
       </c>
-      <c r="D9" s="1">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
       </c>
       <c r="C11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
         <v>1.7</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15</v>
@@ -783,152 +893,200 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D19" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E20" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="1">
         <v>12</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="1">
         <v>0.9</v>
       </c>
-      <c r="D19" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D21" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
         <v>0.2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D22" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>15</v>
@@ -936,38 +1094,50 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>20</v>
@@ -975,247 +1145,1996 @@
       <c r="C28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>15</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>18</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C32" s="1">
         <v>0.8</v>
       </c>
-      <c r="D30" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D32" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B33" s="1">
         <v>20</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>15</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1">
         <v>20</v>
       </c>
-      <c r="C37" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="1">
-        <v>15</v>
-      </c>
       <c r="C38" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>15</v>
       </c>
       <c r="C39" s="1">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>20</v>
       </c>
       <c r="C40" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D43" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B44" s="1">
         <v>18</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C44" s="1">
         <v>0.6</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="1">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="1">
-        <v>20</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="E47" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="1">
         <v>15</v>
       </c>
-      <c r="C43" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="1">
-        <v>20</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1">
         <v>15</v>
       </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B50" s="1">
         <v>12</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O50">
+    <sortCondition ref="A2:A50"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC30F683-1C90-46D0-A7FC-00FE49E5C28B}">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="1">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="1">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1">
+        <v>21</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1">
+        <v>18</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="1">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="1">
+        <v>18</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="1">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="1">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:F63">
+    <sortCondition ref="A48:A63"/>
+  </sortState>
+  <mergeCells count="16">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A34:A35"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA7F3C2-C3F3-48B4-AE29-0180A649FF5B}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>